--- a/JS-Frameworks-Self-Evaluation-Protocol-Aleksandar-Milev.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol-Aleksandar-Milev.xlsx
@@ -356,35 +356,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -693,50 +693,50 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="2:5" ht="18">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>18</v>
@@ -763,12 +763,12 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="18">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="3" t="s">
@@ -909,16 +909,16 @@
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="15">
         <v>0</v>
       </c>
-      <c r="D22" s="23">
-        <v>10</v>
-      </c>
-      <c r="E22" s="23" t="s">
+      <c r="D22" s="15">
+        <v>10</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1071,48 +1071,48 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="2:5" ht="18">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="15">
         <v>0</v>
       </c>
-      <c r="D36" s="23">
-        <v>10</v>
-      </c>
-      <c r="E36" s="23"/>
+      <c r="D36" s="15">
+        <v>10</v>
+      </c>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="15">
         <v>0</v>
       </c>
-      <c r="D37" s="23">
-        <v>5</v>
-      </c>
-      <c r="E37" s="23"/>
+      <c r="D37" s="15">
+        <v>5</v>
+      </c>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="15">
         <v>0</v>
       </c>
-      <c r="D38" s="23">
-        <v>10</v>
-      </c>
-      <c r="E38" s="23"/>
+      <c r="D38" s="15">
+        <v>10</v>
+      </c>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="13" t="s">
@@ -1127,52 +1127,52 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="15">
         <v>0</v>
       </c>
-      <c r="D40" s="23">
-        <v>5</v>
-      </c>
-      <c r="E40" s="23"/>
+      <c r="D40" s="15">
+        <v>5</v>
+      </c>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="15">
         <v>0</v>
       </c>
-      <c r="D41" s="23">
-        <v>5</v>
-      </c>
-      <c r="E41" s="23"/>
+      <c r="D41" s="15">
+        <v>5</v>
+      </c>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="15">
         <v>0</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="15">
         <v>20</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="15">
         <v>0</v>
       </c>
-      <c r="D43" s="23">
-        <v>10</v>
-      </c>
-      <c r="E43" s="23"/>
+      <c r="D43" s="15">
+        <v>10</v>
+      </c>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="2:5" ht="18">
       <c r="B44" s="1" t="s">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C44" s="10">
         <f>SUM(C6:C43)</f>
-        <v>210.5</v>
+        <v>212.5</v>
       </c>
       <c r="D44" s="10">
         <v>370</v>
